--- a/data/trans_orig/P14C19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C19-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1494D9E8-762E-432A-A2D8-4D5C6F5E036B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE9FF63A-43BE-4407-BA55-F46091D3C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{28B04A27-2EE7-4650-B498-4EBA7B8C4B51}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E25776D-4729-4759-829D-6F5BE3E84F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="135">
   <si>
     <t>Población según el tiempo de diagnóstico del varices en las piernas en 2015 (Tasa respuesta: 3,43%)</t>
   </si>
@@ -119,25 +119,25 @@
     <t>83,41%</t>
   </si>
   <si>
-    <t>57,63%</t>
+    <t>50,43%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>55,78%</t>
+    <t>55,88%</t>
   </si>
   <si>
     <t>16,59%</t>
   </si>
   <si>
-    <t>42,37%</t>
+    <t>49,57%</t>
   </si>
   <si>
     <t>14,65%</t>
   </si>
   <si>
-    <t>44,22%</t>
+    <t>44,12%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -152,61 +152,61 @@
     <t>70,57%</t>
   </si>
   <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>78,5%</t>
   </si>
   <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
   </si>
   <si>
     <t>75,69%</t>
   </si>
   <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
   </si>
   <si>
     <t>21,5%</t>
   </si>
   <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>31,23%</t>
+    <t>25,82%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -215,7 +215,7 @@
     <t>2,22%</t>
   </si>
   <si>
-    <t>9,27%</t>
+    <t>9,52%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -224,49 +224,49 @@
     <t>79,78%</t>
   </si>
   <si>
-    <t>45,17%</t>
+    <t>44,6%</t>
   </si>
   <si>
     <t>80,31%</t>
   </si>
   <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>80,22%</t>
   </si>
   <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>20,22%</t>
   </si>
   <si>
-    <t>54,83%</t>
+    <t>55,4%</t>
   </si>
   <si>
     <t>13,51%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
   </si>
   <si>
     <t>14,7%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -275,13 +275,13 @@
     <t>6,18%</t>
   </si>
   <si>
-    <t>22,06%</t>
+    <t>19,09%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>16,57%</t>
+    <t>17,8%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -290,7 +290,7 @@
     <t>81,55%</t>
   </si>
   <si>
-    <t>56,14%</t>
+    <t>55,47%</t>
   </si>
   <si>
     <t>95,26%</t>
@@ -299,142 +299,145 @@
     <t>89,3%</t>
   </si>
   <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>88,28%</t>
   </si>
   <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>25,38%</t>
+    <t>21,93%</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>39,89%</t>
+    <t>40,61%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>7,14%</t>
+    <t>6,97%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
   </si>
   <si>
     <t>78,0%</t>
   </si>
   <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
   </si>
   <si>
     <t>85,42%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>7,03%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -849,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421B3138-D03A-4255-AB20-C4825E3E0277}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE668F9-4987-49A8-9551-4183475424DA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2320,10 +2323,10 @@
         <v>131</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,7 +2382,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C19-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE9FF63A-43BE-4407-BA55-F46091D3C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0EBE4D7-6D2F-4273-B282-A6D862FB99F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E25776D-4729-4759-829D-6F5BE3E84F6F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7714AD1-B108-4BC9-B203-02F930A27B58}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="135">
   <si>
-    <t>Población según el tiempo de diagnóstico del varices en las piernas en 2015 (Tasa respuesta: 3,43%)</t>
+    <t>Población según el tiempo de diagnóstico del varices en las piernas en 2016 (Tasa respuesta: 3,43%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -119,25 +119,25 @@
     <t>83,41%</t>
   </si>
   <si>
-    <t>50,43%</t>
+    <t>57,93%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>55,88%</t>
+    <t>57,1%</t>
   </si>
   <si>
     <t>16,59%</t>
   </si>
   <si>
-    <t>49,57%</t>
+    <t>42,07%</t>
   </si>
   <si>
     <t>14,65%</t>
   </si>
   <si>
-    <t>44,12%</t>
+    <t>42,9%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -152,61 +152,61 @@
     <t>70,57%</t>
   </si>
   <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
   </si>
   <si>
     <t>78,5%</t>
   </si>
   <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
   </si>
   <si>
     <t>75,69%</t>
   </si>
   <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
   </si>
   <si>
     <t>21,5%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>25,82%</t>
+    <t>30,16%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -215,7 +215,7 @@
     <t>2,22%</t>
   </si>
   <si>
-    <t>9,52%</t>
+    <t>11,23%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -224,49 +224,49 @@
     <t>79,78%</t>
   </si>
   <si>
-    <t>44,6%</t>
+    <t>44,47%</t>
   </si>
   <si>
     <t>80,31%</t>
   </si>
   <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
   </si>
   <si>
     <t>80,22%</t>
   </si>
   <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
   </si>
   <si>
     <t>20,22%</t>
   </si>
   <si>
-    <t>55,4%</t>
+    <t>55,53%</t>
   </si>
   <si>
     <t>13,51%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
   </si>
   <si>
     <t>14,7%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -275,13 +275,13 @@
     <t>6,18%</t>
   </si>
   <si>
-    <t>19,09%</t>
+    <t>18,78%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>17,8%</t>
+    <t>17,06%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -290,136 +290,136 @@
     <t>81,55%</t>
   </si>
   <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>89,3%</t>
   </si>
   <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>88,28%</t>
   </si>
   <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>21,93%</t>
+    <t>22,01%</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>40,61%</t>
+    <t>39,95%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>6,97%</t>
+    <t>6,99%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
   </si>
   <si>
     <t>78,0%</t>
   </si>
   <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>85,42%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>2,62%</t>
@@ -428,16 +428,16 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>6,04%</t>
+    <t>6,09%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -852,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE668F9-4987-49A8-9551-4183475424DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B647FACA-3C84-4270-98E8-40F9FAE85983}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
